--- a/自然（しぜん）.xlsx
+++ b/自然（しぜん）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C9FBD9-6BE0-48FB-8138-ADE1D6454861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C916266-E00C-444A-9032-8AFC58C77EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5604" yWindow="1680" windowWidth="11652" windowHeight="8964" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="天気（てんき）" sheetId="4" r:id="rId1"/>
@@ -2514,8 +2514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D4C4B3-ED80-4122-8141-B1B8D40268AD}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2807,8 +2807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/自然（しぜん）.xlsx
+++ b/自然（しぜん）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C916266-E00C-444A-9032-8AFC58C77EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75359B66-17AA-4F61-831B-D66EA7D68E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="天気（てんき）" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="352">
   <si>
     <t>ねずみ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -963,10 +963,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>くも</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>曇、雲</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1338,10 +1334,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>蝦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>人参</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1419,6 +1411,104 @@
   </si>
   <si>
     <t>しぜんほうそく</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>くもり</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨が降る、雨がやる
+雨が強い、雨が弱い</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆき</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸し暑い</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>むしあつい</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>かさ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地震</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>じしん</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台風</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>たいふう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>かじ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海老</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海豚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>いるか</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>つめ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尻尾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>しっぽ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>け</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛が多い
+毛が細い｜けがほそい</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1819,10 +1909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AECD3F-E0C6-466C-81EC-02AD219D7694}">
-  <dimension ref="A2:I16"/>
+  <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1832,95 +1922,96 @@
     <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>329</v>
       </c>
       <c r="E2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>239</v>
+      <c r="A3" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="F3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>238</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="C4" t="s">
         <v>236</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.45">
-      <c r="C5" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="E5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+      <c r="C6" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="F5" t="s">
-        <v>224</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>218</v>
@@ -1929,21 +2020,21 @@
         <v>217</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>214</v>
+        <v>328</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>213</v>
@@ -1952,18 +2043,21 @@
         <v>212</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>209</v>
@@ -1971,90 +2065,134 @@
       <c r="F8" s="1" t="s">
         <v>208</v>
       </c>
+      <c r="H8" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
+      </c>
+      <c r="C11" t="s">
+        <v>272</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>197</v>
+      <c r="E12" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>285</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C17" t="s">
         <v>306</v>
       </c>
-      <c r="C16" t="s">
-        <v>307</v>
+    </row>
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -2079,85 +2217,85 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2170,8 +2308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8193B3-728C-47E2-BA91-8CE93ACF848F}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2259,10 +2397,10 @@
     </row>
     <row r="4" spans="1:13" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
@@ -2341,7 +2479,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" ht="36" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -2359,6 +2497,15 @@
       <c r="G7" t="s">
         <v>31</v>
       </c>
+      <c r="I7" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
@@ -2378,6 +2525,12 @@
       <c r="G8" t="s">
         <v>26</v>
       </c>
+      <c r="I8" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
@@ -2395,8 +2548,20 @@
       <c r="G9" t="s">
         <v>23</v>
       </c>
+      <c r="I9" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
@@ -2414,10 +2579,10 @@
     </row>
     <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.45">
       <c r="E12" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.45">
@@ -2514,8 +2679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D4C4B3-ED80-4122-8141-B1B8D40268AD}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2687,10 +2852,10 @@
     </row>
     <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D8" s="1"/>
       <c r="G8" s="1" t="s">
@@ -2837,10 +3002,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>170</v>
@@ -2919,10 +3084,10 @@
         <v>151</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -2933,10 +3098,10 @@
         <v>155</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -2947,13 +3112,13 @@
         <v>156</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -2967,10 +3132,10 @@
         <v>176</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -2981,13 +3146,13 @@
         <v>159</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -2998,10 +3163,10 @@
         <v>159</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -3012,10 +3177,10 @@
         <v>178</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -3026,10 +3191,10 @@
         <v>180</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -3050,18 +3215,18 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -3074,69 +3239,69 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/自然（しぜん）.xlsx
+++ b/自然（しぜん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75359B66-17AA-4F61-831B-D66EA7D68E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB83B246-73FC-4240-9976-E82B04E37599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9972" yWindow="348" windowWidth="12876" windowHeight="11124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="天気（てんき）" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="355">
   <si>
     <t>ねずみ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1511,12 +1511,43 @@
 毛が細い｜けがほそい</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>津波</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>つなみ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>海啸）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1593,6 +1624,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1614,7 +1653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1629,6 +1668,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1909,10 +1949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AECD3F-E0C6-466C-81EC-02AD219D7694}">
-  <dimension ref="A2:I21"/>
+  <dimension ref="A2:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2193,6 +2233,17 @@
       </c>
       <c r="B21" s="1" t="s">
         <v>341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -2308,8 +2359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8193B3-728C-47E2-BA91-8CE93ACF848F}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/自然（しぜん）.xlsx
+++ b/自然（しぜん）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB83B246-73FC-4240-9976-E82B04E37599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7190AED9-B07D-4EC8-82E3-C9B0CD7E8F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9972" yWindow="348" windowWidth="12876" windowHeight="11124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="天気（てんき）" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="357">
   <si>
     <t>ねずみ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1540,6 +1540,14 @@
       </rPr>
       <t>海啸）</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木の葉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>このは</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1951,8 +1959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AECD3F-E0C6-466C-81EC-02AD219D7694}">
   <dimension ref="A2:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2728,10 +2736,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D4C4B3-ED80-4122-8141-B1B8D40268AD}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3011,6 +3019,14 @@
       </c>
       <c r="L20" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="10:12" ht="18" x14ac:dyDescent="0.45">
+      <c r="J21" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/自然（しぜん）.xlsx
+++ b/自然（しぜん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7190AED9-B07D-4EC8-82E3-C9B0CD7E8F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34996A0B-3642-4AB1-947D-0F46A5381354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="天気（てんき）" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="361">
   <si>
     <t>ねずみ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1548,6 +1548,22 @@
   </si>
   <si>
     <t>このは</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>おか</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>災害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>さいがい</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2738,8 +2754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D4C4B3-ED80-4122-8141-B1B8D40268AD}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3037,10 +3053,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G28"/>
+  <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3103,10 +3119,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>164</v>
+        <v>357</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>163</v>
+        <v>358</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>187</v>
@@ -3117,10 +3133,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>189</v>
@@ -3131,10 +3147,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>193</v>
@@ -3145,7 +3161,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>151</v>
@@ -3159,10 +3175,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>279</v>
@@ -3173,24 +3189,21 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>287</v>
+        <v>359</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>289</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>156</v>
@@ -3199,175 +3212,192 @@
         <v>176</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>323</v>
+        <v>297</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>286</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>193</v>
+        <v>290</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>294</v>
+        <v>193</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>295</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>303</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>320</v>
       </c>
     </row>

--- a/自然（しぜん）.xlsx
+++ b/自然（しぜん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34996A0B-3642-4AB1-947D-0F46A5381354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBDDA1A-431C-4283-8C9F-AE8E21339351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="天気（てんき）" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="363">
   <si>
     <t>ねずみ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1564,6 +1564,14 @@
   </si>
   <si>
     <t>さいがい</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛暑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>もうしょ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1975,8 +1983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AECD3F-E0C6-466C-81EC-02AD219D7694}">
   <dimension ref="A2:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2182,6 +2190,12 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>205</v>
       </c>
@@ -3055,7 +3069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/自然（しぜん）.xlsx
+++ b/自然（しぜん）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBDDA1A-431C-4283-8C9F-AE8E21339351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1FE829-0657-4835-AA9F-E8F8390B1E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="373">
   <si>
     <t>ねずみ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1572,6 +1572,46 @@
   </si>
   <si>
     <t>もうしょ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沿岸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>えんがん</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海岸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>かいがん</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡椒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>こしょう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>しも</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸気</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>じょうき</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1981,10 +2021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AECD3F-E0C6-466C-81EC-02AD219D7694}">
-  <dimension ref="A2:I22"/>
+  <dimension ref="A2:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2123,14 +2163,12 @@
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>216</v>
+        <v>369</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>214</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="E8" s="1" t="s">
         <v>209</v>
       </c>
@@ -2146,10 +2184,13 @@
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>275</v>
@@ -2160,10 +2201,10 @@
     </row>
     <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>310</v>
@@ -2174,13 +2215,10 @@
     </row>
     <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C11" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>332</v>
@@ -2191,10 +2229,13 @@
     </row>
     <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>361</v>
+        <v>200</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>362</v>
+        <v>199</v>
+      </c>
+      <c r="C12" t="s">
+        <v>272</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>205</v>
@@ -2206,82 +2247,98 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>197</v>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>283</v>
+        <v>196</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>284</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C17" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>337</v>
+        <v>305</v>
+      </c>
+      <c r="C18" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>202</v>
+        <v>338</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>201</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>340</v>
+        <v>202</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>341</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -2961,6 +3018,12 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="J9" s="1" t="s">
         <v>92</v>
       </c>
@@ -3067,10 +3130,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G29"/>
+  <dimension ref="A2:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3310,108 +3373,124 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>185</v>
+        <v>365</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>186</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>191</v>
+        <v>363</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>192</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>285</v>
+        <v>185</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>286</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>290</v>
+        <v>191</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>291</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>193</v>
+        <v>285</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>194</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>301</v>
+        <v>193</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>300</v>
+        <v>194</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="9" t="s">
-        <v>302</v>
+      <c r="A24" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>314</v>
+      <c r="A26" s="9" t="s">
+        <v>302</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>320</v>
       </c>
     </row>

--- a/自然（しぜん）.xlsx
+++ b/自然（しぜん）.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1FE829-0657-4835-AA9F-E8F8390B1E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DFA631-0062-4CB3-B873-DEE2897F17B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="382">
   <si>
     <t>ねずみ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1612,6 +1612,63 @@
   </si>
   <si>
     <t>じょうき</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大根</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>だいこん</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>萝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>卜）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅葉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（椛）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>よぞら</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜明け</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>よあけ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2021,10 +2078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AECD3F-E0C6-466C-81EC-02AD219D7694}">
-  <dimension ref="A2:I24"/>
+  <dimension ref="A2:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2339,6 +2396,22 @@
       </c>
       <c r="B24" s="1" t="s">
         <v>372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -2455,7 +2528,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2823,10 +2896,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D4C4B3-ED80-4122-8141-B1B8D40268AD}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2983,6 +3056,15 @@
       <c r="B7" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="G7" s="1" t="s">
         <v>100</v>
       </c>
@@ -3120,6 +3202,17 @@
       </c>
       <c r="K21" s="1" t="s">
         <v>356</v>
+      </c>
+    </row>
+    <row r="22" spans="10:12" ht="18" x14ac:dyDescent="0.45">
+      <c r="J22" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L22" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/自然（しぜん）.xlsx
+++ b/自然（しぜん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DFA631-0062-4CB3-B873-DEE2897F17B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E5A93C-80BD-4D99-92C8-FA10340C7713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="天気（てんき）" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="388">
   <si>
     <t>ねずみ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1669,6 +1669,30 @@
   </si>
   <si>
     <t>よあけ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小雨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>こさめ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枝道｜えだみち</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>しんりん</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林公園｜しんりんこうえん</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2078,10 +2102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AECD3F-E0C6-466C-81EC-02AD219D7694}">
-  <dimension ref="A2:I26"/>
+  <dimension ref="A2:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2258,11 +2282,12 @@
     </row>
     <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>211</v>
+        <v>382</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>210</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>310</v>
       </c>
@@ -2272,10 +2297,13 @@
     </row>
     <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>207</v>
+        <v>304</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>206</v>
+        <v>305</v>
+      </c>
+      <c r="C11" t="s">
+        <v>306</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>332</v>
@@ -2286,13 +2314,10 @@
     </row>
     <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" t="s">
-        <v>272</v>
+        <v>210</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>205</v>
@@ -2306,111 +2331,119 @@
     </row>
     <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>361</v>
+        <v>207</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>362</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>198</v>
+        <v>361</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>284</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C18" t="s">
-        <v>306</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>336</v>
+        <v>196</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>337</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>202</v>
+        <v>336</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>201</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>352</v>
+        <v>202</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>354</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>379</v>
+        <v>353</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>381</v>
       </c>
     </row>
@@ -2528,7 +2561,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E8" sqref="E8:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2896,10 +2929,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D4C4B3-ED80-4122-8141-B1B8D40268AD}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2908,7 +2941,7 @@
     <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="G1" s="1" t="s">
         <v>145</v>
       </c>
@@ -2919,7 +2952,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>142</v>
       </c>
@@ -2945,7 +2978,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>134</v>
       </c>
@@ -2971,7 +3004,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>126</v>
       </c>
@@ -2997,7 +3030,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>118</v>
       </c>
@@ -3023,7 +3056,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>110</v>
       </c>
@@ -3049,7 +3082,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>102</v>
       </c>
@@ -3078,7 +3111,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>308</v>
       </c>
@@ -3099,7 +3132,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>367</v>
       </c>
@@ -3113,7 +3146,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="J10" s="1" t="s">
         <v>90</v>
       </c>
@@ -3121,7 +3154,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="J12" s="1" t="s">
         <v>161</v>
       </c>
@@ -3129,7 +3162,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="J13" s="1" t="s">
         <v>88</v>
       </c>
@@ -3137,60 +3170,66 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="J14" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+      <c r="J15" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="J15" s="1" t="s">
+      <c r="L15" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+      <c r="J16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="J16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="17" spans="10:12" ht="18" x14ac:dyDescent="0.45">
       <c r="J17" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="10:12" ht="18" x14ac:dyDescent="0.45">
       <c r="J18" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="10:12" ht="18" x14ac:dyDescent="0.45">
       <c r="J19" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="10:12" ht="18" x14ac:dyDescent="0.45">
       <c r="J20" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L20" t="s">
         <v>74</v>
@@ -3198,21 +3237,29 @@
     </row>
     <row r="21" spans="10:12" ht="18" x14ac:dyDescent="0.45">
       <c r="J21" s="1" t="s">
-        <v>355</v>
+        <v>76</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>356</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="10:12" ht="18" x14ac:dyDescent="0.45">
       <c r="J22" s="1" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>97</v>
+        <v>356</v>
       </c>
       <c r="L22" t="s">
         <v>377</v>
+      </c>
+    </row>
+    <row r="23" spans="10:12" ht="18" x14ac:dyDescent="0.45">
+      <c r="J23" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3225,8 +3272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G20" sqref="A20:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/自然（しぜん）.xlsx
+++ b/自然（しぜん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E5A93C-80BD-4D99-92C8-FA10340C7713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC93625E-0D5F-42B3-A1DF-9E772D336551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="天気（てんき）" sheetId="4" r:id="rId1"/>
@@ -2104,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AECD3F-E0C6-466C-81EC-02AD219D7694}">
   <dimension ref="A2:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2560,8 +2560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8193B3-728C-47E2-BA91-8CE93ACF848F}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:I14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C1:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2931,8 +2931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D4C4B3-ED80-4122-8141-B1B8D40268AD}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3272,13 +3272,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G20" sqref="A20:G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="6" width="8.88671875" style="1"/>
+    <col min="1" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="16.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.33203125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>

--- a/自然（しぜん）.xlsx
+++ b/自然（しぜん）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC93625E-0D5F-42B3-A1DF-9E772D336551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33A7C45-329B-4160-A3F8-C6447954CB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="394">
   <si>
     <t>ねずみ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1693,6 +1693,30 @@
   </si>
   <si>
     <t>森林公園｜しんりんこうえん</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梧桐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ごとう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>塵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちり</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>土</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>つち</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2929,10 +2953,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D4C4B3-ED80-4122-8141-B1B8D40268AD}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3262,6 +3286,14 @@
         <v>97</v>
       </c>
     </row>
+    <row r="24" spans="10:12" ht="18" x14ac:dyDescent="0.45">
+      <c r="J24" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3270,10 +3302,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G31"/>
+  <dimension ref="A2:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3538,101 +3570,117 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>191</v>
+        <v>392</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>192</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>286</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>193</v>
+        <v>290</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>294</v>
+        <v>193</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>295</v>
+        <v>194</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="9" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>303</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/自然（しぜん）.xlsx
+++ b/自然（しぜん）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33A7C45-329B-4160-A3F8-C6447954CB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B2FEA3-72AC-40A7-A84F-CF00A6994B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="404">
   <si>
     <t>ねずみ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1717,6 +1717,46 @@
   </si>
   <si>
     <t>つち</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>いちご</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>つばさ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐竜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょうりゅう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>悲鳴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひめい</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>予備電源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>よびでんげん</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2585,7 +2625,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C1:M13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2730,6 +2770,12 @@
       <c r="J5" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="L5" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
@@ -2844,6 +2890,12 @@
       <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I10" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.45">
       <c r="E11" s="1" t="s">
@@ -2861,27 +2913,20 @@
         <v>282</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.45">
+      <c r="E13" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="35.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="35.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="E15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -2890,55 +2935,67 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
+      <c r="A16" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2955,8 +3012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D4C4B3-ED80-4122-8141-B1B8D40268AD}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3163,6 +3220,12 @@
       <c r="B9" s="1" t="s">
         <v>368</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>395</v>
+      </c>
       <c r="J9" s="1" t="s">
         <v>92</v>
       </c>
@@ -3304,8 +3367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3544,15 +3607,21 @@
         <v>327</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>365</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E17" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>363</v>
       </c>
@@ -3560,7 +3629,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>185</v>
       </c>
@@ -3568,7 +3637,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>392</v>
       </c>
@@ -3576,7 +3645,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>191</v>
       </c>
@@ -3584,7 +3653,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>285</v>
       </c>
@@ -3592,7 +3661,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>290</v>
       </c>
@@ -3600,18 +3669,15 @@
         <v>291</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>294</v>
       </c>
@@ -3619,15 +3685,18 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C26" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
         <v>302</v>
       </c>
@@ -3635,7 +3704,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>312</v>
       </c>
@@ -3643,7 +3712,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>314</v>
       </c>
@@ -3651,7 +3720,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>316</v>
       </c>
@@ -3659,7 +3728,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>318</v>
       </c>
@@ -3667,7 +3736,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>321</v>
       </c>

--- a/自然（しぜん）.xlsx
+++ b/自然（しぜん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B2FEA3-72AC-40A7-A84F-CF00A6994B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6795103-7909-49D2-8306-B2FF232F60A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="天気（てんき）" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="413">
   <si>
     <t>ねずみ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -963,10 +963,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>曇、雲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>しつど</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1759,12 +1755,52 @@
     <t>よびでんげん</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>猿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>さる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猿を手懐ける</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回収</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>かいしゅう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蟻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>🐜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>あり</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1849,6 +1885,12 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1870,7 +1912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1886,6 +1928,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2166,10 +2209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AECD3F-E0C6-466C-81EC-02AD219D7694}">
-  <dimension ref="A2:I28"/>
+  <dimension ref="A2:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2181,94 +2224,94 @@
   <sheetData>
     <row r="2" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="C3" s="5"/>
       <c r="F3" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="C6" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>218</v>
@@ -2277,22 +2320,20 @@
         <v>217</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>220</v>
+        <v>411</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>219</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="C7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>213</v>
       </c>
@@ -2300,20 +2341,22 @@
         <v>212</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>327</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>209</v>
       </c>
@@ -2321,67 +2364,68 @@
         <v>208</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>216</v>
+        <v>368</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>214</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="C9" s="5"/>
       <c r="E9" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>382</v>
+        <v>216</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>215</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="E10" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>304</v>
+        <v>381</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C11" t="s">
-        <v>306</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="C11" s="1"/>
       <c r="E11" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>211</v>
+        <v>303</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>210</v>
+        <v>304</v>
+      </c>
+      <c r="C12" t="s">
+        <v>305</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>205</v>
@@ -2395,120 +2439,128 @@
     </row>
     <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C14" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>283</v>
+        <v>196</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>284</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>336</v>
+        <v>282</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>202</v>
+        <v>337</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>201</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>340</v>
+        <v>202</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>341</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>372</v>
+        <v>352</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -2533,85 +2585,85 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2622,10 +2674,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8193B3-728C-47E2-BA91-8CE93ACF848F}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2713,10 +2765,10 @@
     </row>
     <row r="4" spans="1:13" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
@@ -2771,10 +2823,10 @@
         <v>40</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.45">
@@ -2820,13 +2872,13 @@
         <v>31</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="5" t="s">
         <v>350</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.45">
@@ -2848,10 +2900,10 @@
         <v>26</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.45">
@@ -2871,18 +2923,18 @@
         <v>23</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>22</v>
@@ -2891,10 +2943,10 @@
         <v>21</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.45">
@@ -2907,100 +2959,120 @@
     </row>
     <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.45">
       <c r="E12" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="35.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
+    </row>
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.45">
+      <c r="E14" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="35.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3171,13 +3243,13 @@
         <v>101</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>100</v>
@@ -3194,10 +3266,10 @@
     </row>
     <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="D8" s="1"/>
       <c r="G8" s="1" t="s">
@@ -3215,16 +3287,16 @@
     </row>
     <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="G9" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>92</v>
@@ -3259,13 +3331,13 @@
     </row>
     <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="J14" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -3276,7 +3348,7 @@
         <v>182</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -3332,18 +3404,18 @@
     </row>
     <row r="22" spans="10:12" ht="18" x14ac:dyDescent="0.45">
       <c r="J22" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="L22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="10:12" ht="18" x14ac:dyDescent="0.45">
       <c r="J23" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>97</v>
@@ -3351,10 +3423,10 @@
     </row>
     <row r="24" spans="10:12" ht="18" x14ac:dyDescent="0.45">
       <c r="J24" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -3367,8 +3439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3398,10 +3470,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>170</v>
@@ -3432,10 +3504,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>187</v>
@@ -3480,10 +3552,10 @@
         <v>151</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -3494,10 +3566,10 @@
         <v>151</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -3508,10 +3580,10 @@
         <v>155</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -3525,13 +3597,13 @@
         <v>176</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -3542,10 +3614,10 @@
         <v>156</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -3556,13 +3628,13 @@
         <v>159</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -3573,10 +3645,10 @@
         <v>159</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -3587,10 +3659,10 @@
         <v>178</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -3601,32 +3673,38 @@
         <v>180</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="E17" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>364</v>
+      <c r="E18" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -3639,10 +3717,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -3655,18 +3733,18 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -3679,77 +3757,77 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/自然（しぜん）.xlsx
+++ b/自然（しぜん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6795103-7909-49D2-8306-B2FF232F60A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB1ED23-AAED-4BD6-9A63-0E059CCEA619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="天気（てんき）" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="419">
   <si>
     <t>ねずみ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1793,6 +1793,29 @@
   </si>
   <si>
     <t>曇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂漠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>さばく</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浄水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>じょうすい</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大地</t>
+  </si>
+  <si>
+    <t>だいち</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2211,8 +2234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AECD3F-E0C6-466C-81EC-02AD219D7694}">
   <dimension ref="A2:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2677,7 +2700,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3437,10 +3460,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G33"/>
+  <dimension ref="A2:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3714,6 +3737,12 @@
       <c r="B19" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
@@ -3828,6 +3857,22 @@
       </c>
       <c r="B33" s="1" t="s">
         <v>390</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/自然（しぜん）.xlsx
+++ b/自然（しぜん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB1ED23-AAED-4BD6-9A63-0E059CCEA619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A1C863-B726-441B-8B78-53A60E482A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="天気（てんき）" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="425">
   <si>
     <t>ねずみ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1816,6 +1816,30 @@
   </si>
   <si>
     <t>だいち</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛皮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>けがわ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吠える</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほえる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>たんすい</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2699,8 +2723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8193B3-728C-47E2-BA91-8CE93ACF848F}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2875,6 +2899,12 @@
       <c r="J6" s="1" t="s">
         <v>184</v>
       </c>
+      <c r="L6" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="36" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
@@ -2978,6 +3008,12 @@
       </c>
       <c r="F11" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.45">
@@ -3462,8 +3498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3751,6 +3787,12 @@
       <c r="B20" s="1" t="s">
         <v>392</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
